--- a/BDF/1A.xlsx
+++ b/BDF/1A.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aparize\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cours\ensc\2A\BDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA7F2C6-F6B9-4302-8E4F-AC63C865D664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$F$85</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="376">
   <si>
     <t>takemakou</t>
   </si>
@@ -213,9 +217,6 @@
     <t>mpimpaud</t>
   </si>
   <si>
-    <t>apinzi</t>
-  </si>
-  <si>
     <t>lrocuet</t>
   </si>
   <si>
@@ -660,12 +661,6 @@
     <t>Maxime</t>
   </si>
   <si>
-    <t>PINZI</t>
-  </si>
-  <si>
-    <t>Alexandre</t>
-  </si>
-  <si>
     <t>ROCUET</t>
   </si>
   <si>
@@ -757,12 +752,411 @@
   </si>
   <si>
     <t>prenom_1A</t>
+  </si>
+  <si>
+    <t>MUSACCHIO</t>
+  </si>
+  <si>
+    <t>Pierre</t>
+  </si>
+  <si>
+    <t>BONNEFON</t>
+  </si>
+  <si>
+    <t>LETOURNEL</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>DHELLIN</t>
+  </si>
+  <si>
+    <t>Matthias</t>
+  </si>
+  <si>
+    <t>JUANEDA</t>
+  </si>
+  <si>
+    <t>CADO</t>
+  </si>
+  <si>
+    <t>Erwan</t>
+  </si>
+  <si>
+    <t>CARACATSANIS</t>
+  </si>
+  <si>
+    <t>Oriane</t>
+  </si>
+  <si>
+    <t>BANNAY</t>
+  </si>
+  <si>
+    <t>BRISSAUD</t>
+  </si>
+  <si>
+    <t>Cloé</t>
+  </si>
+  <si>
+    <t>CHAUVIER</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>DE LIGNY</t>
+  </si>
+  <si>
+    <t>Tiphaine</t>
+  </si>
+  <si>
+    <t>THOMASSON</t>
+  </si>
+  <si>
+    <t>NDIAYE</t>
+  </si>
+  <si>
+    <t>Mariam</t>
+  </si>
+  <si>
+    <t>PRADAL</t>
+  </si>
+  <si>
+    <t>Judith</t>
+  </si>
+  <si>
+    <t>BINET</t>
+  </si>
+  <si>
+    <t>Coline</t>
+  </si>
+  <si>
+    <t>Maël</t>
+  </si>
+  <si>
+    <t>GUILLET</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>PERRIER</t>
+  </si>
+  <si>
+    <t>Alban</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Garlatti</t>
+  </si>
+  <si>
+    <t>CONSTANS</t>
+  </si>
+  <si>
+    <t>Théa</t>
+  </si>
+  <si>
+    <t>PIERRE</t>
+  </si>
+  <si>
+    <t>Fanny</t>
+  </si>
+  <si>
+    <t>DIZET</t>
+  </si>
+  <si>
+    <t>Allan</t>
+  </si>
+  <si>
+    <t>Bulteau</t>
+  </si>
+  <si>
+    <t>Justine</t>
+  </si>
+  <si>
+    <t>OTHEGUY</t>
+  </si>
+  <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>HOLSTEIN</t>
+  </si>
+  <si>
+    <t>MANEUX</t>
+  </si>
+  <si>
+    <t>Tangi</t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>Loic</t>
+  </si>
+  <si>
+    <t>CARLIEZ</t>
+  </si>
+  <si>
+    <t>COGNET</t>
+  </si>
+  <si>
+    <t>Jean-Baptiste</t>
+  </si>
+  <si>
+    <t>BRIAND</t>
+  </si>
+  <si>
+    <t>Julien</t>
+  </si>
+  <si>
+    <t>DESCLAUX</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>THELOT</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>VINCENT</t>
+  </si>
+  <si>
+    <t>Amaury</t>
+  </si>
+  <si>
+    <t>GADEAU</t>
+  </si>
+  <si>
+    <t>Juliette</t>
+  </si>
+  <si>
+    <t>GASS</t>
+  </si>
+  <si>
+    <t>Aurelie</t>
+  </si>
+  <si>
+    <t>VALLÉE</t>
+  </si>
+  <si>
+    <t>Amandine</t>
+  </si>
+  <si>
+    <t>LAUR</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>ARRACHEQUESNE</t>
+  </si>
+  <si>
+    <t>CIATTONI</t>
+  </si>
+  <si>
+    <t>Ines</t>
+  </si>
+  <si>
+    <t>nom_2A</t>
+  </si>
+  <si>
+    <t>prenom_2A</t>
+  </si>
+  <si>
+    <t>LEROY</t>
+  </si>
+  <si>
+    <t>De Gasquet</t>
+  </si>
+  <si>
+    <t>Colin</t>
+  </si>
+  <si>
+    <t>LORGUE</t>
+  </si>
+  <si>
+    <t>PELLETREAU</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>TOMAS</t>
+  </si>
+  <si>
+    <t>CADET</t>
+  </si>
+  <si>
+    <t>Elise</t>
+  </si>
+  <si>
+    <t>PASCOTTINI</t>
+  </si>
+  <si>
+    <t>Canelle</t>
+  </si>
+  <si>
+    <t>LARGEAULT</t>
+  </si>
+  <si>
+    <t>SCOLAN</t>
+  </si>
+  <si>
+    <t>Faure</t>
+  </si>
+  <si>
+    <t>VILAYLECK</t>
+  </si>
+  <si>
+    <t>LAVENSEAU</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>Enora</t>
+  </si>
+  <si>
+    <t>LOTHAIRE</t>
+  </si>
+  <si>
+    <t>Fannie</t>
+  </si>
+  <si>
+    <t>FRICAUD</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>LANUSSE--MALHENE</t>
+  </si>
+  <si>
+    <t>GUERIN</t>
+  </si>
+  <si>
+    <t>Elisa</t>
+  </si>
+  <si>
+    <t>DURAND</t>
+  </si>
+  <si>
+    <t>Caroline</t>
+  </si>
+  <si>
+    <t>DE FOUCAUD</t>
+  </si>
+  <si>
+    <t>Tess</t>
+  </si>
+  <si>
+    <t>SILLE</t>
+  </si>
+  <si>
+    <t>VALENTIN</t>
+  </si>
+  <si>
+    <t>LE MOIGNE</t>
+  </si>
+  <si>
+    <t>Guilhem</t>
+  </si>
+  <si>
+    <t>DUPETIT</t>
+  </si>
+  <si>
+    <t>MORASSIN</t>
+  </si>
+  <si>
+    <t>Thibault</t>
+  </si>
+  <si>
+    <t>BEAUREPAIRE</t>
+  </si>
+  <si>
+    <t>Margot</t>
+  </si>
+  <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
+    <t>ARTHUIS</t>
+  </si>
+  <si>
+    <t>Albane</t>
+  </si>
+  <si>
+    <t>SAUNDERS</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>PETIT</t>
+  </si>
+  <si>
+    <t>TOUZET</t>
+  </si>
+  <si>
+    <t>Maika</t>
+  </si>
+  <si>
+    <t>MIGEON</t>
+  </si>
+  <si>
+    <t>Agathe</t>
+  </si>
+  <si>
+    <t>VALLCANERAS</t>
+  </si>
+  <si>
+    <t>ZULIANI</t>
+  </si>
+  <si>
+    <t>Matthéo</t>
+  </si>
+  <si>
+    <t>GRONDIN</t>
+  </si>
+  <si>
+    <t>Léa</t>
+  </si>
+  <si>
+    <t>DUBOZ</t>
+  </si>
+  <si>
+    <t>COUFFRANT</t>
+  </si>
+  <si>
+    <t>Adriana</t>
+  </si>
+  <si>
+    <t>DEVREESE</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>PARIZE</t>
+  </si>
+  <si>
+    <t>ESQUIROL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -887,6 +1281,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -922,6 +1333,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1097,27 +1525,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="N82" sqref="N82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="E1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1125,13 +1559,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
         <v>85</v>
       </c>
-      <c r="D2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1139,13 +1579,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
         <v>87</v>
       </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1153,13 +1599,19 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
         <v>89</v>
       </c>
-      <c r="D4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1167,13 +1619,19 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
         <v>91</v>
       </c>
-      <c r="D5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1181,13 +1639,19 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
         <v>93</v>
       </c>
-      <c r="D6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1195,13 +1659,19 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
         <v>95</v>
       </c>
-      <c r="D7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1209,13 +1679,19 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
         <v>97</v>
       </c>
-      <c r="D8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1223,13 +1699,19 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" t="s">
         <v>99</v>
       </c>
-      <c r="D9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>302</v>
+      </c>
+      <c r="F9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1237,13 +1719,19 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
         <v>101</v>
       </c>
-      <c r="D10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1251,13 +1739,19 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
         <v>103</v>
       </c>
-      <c r="D11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1265,13 +1759,19 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
         <v>105</v>
       </c>
-      <c r="D12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>294</v>
+      </c>
+      <c r="F12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1279,13 +1779,19 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" t="s">
         <v>107</v>
       </c>
-      <c r="D13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>287</v>
+      </c>
+      <c r="F13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1293,13 +1799,19 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" t="s">
         <v>109</v>
       </c>
-      <c r="D14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>354</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1307,13 +1819,19 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
         <v>111</v>
       </c>
-      <c r="D15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1321,13 +1839,19 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
         <v>113</v>
       </c>
-      <c r="D16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F16" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1335,13 +1859,19 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="E17" t="s">
+        <v>265</v>
+      </c>
+      <c r="F17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1349,13 +1879,19 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s">
         <v>116</v>
       </c>
-      <c r="D18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>262</v>
+      </c>
+      <c r="F18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1363,13 +1899,19 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" t="s">
         <v>118</v>
       </c>
-      <c r="D19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>357</v>
+      </c>
+      <c r="F19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1377,13 +1919,19 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" t="s">
         <v>120</v>
       </c>
-      <c r="D20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>318</v>
+      </c>
+      <c r="F20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1391,13 +1939,19 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" t="s">
         <v>122</v>
       </c>
-      <c r="D21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>343</v>
+      </c>
+      <c r="F21" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1405,13 +1959,19 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="E22" t="s">
+        <v>327</v>
+      </c>
+      <c r="F22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1419,13 +1979,19 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" t="s">
         <v>125</v>
       </c>
-      <c r="D23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>374</v>
+      </c>
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1433,13 +1999,19 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="E24" t="s">
+        <v>328</v>
+      </c>
+      <c r="F24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1447,13 +2019,19 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" t="s">
         <v>128</v>
       </c>
-      <c r="D25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>275</v>
+      </c>
+      <c r="F25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1461,13 +2039,19 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" t="s">
         <v>130</v>
       </c>
-      <c r="D26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>311</v>
+      </c>
+      <c r="F26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1475,13 +2059,19 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" t="s">
         <v>132</v>
       </c>
-      <c r="D27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>372</v>
+      </c>
+      <c r="F27" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1489,13 +2079,19 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" t="s">
         <v>134</v>
       </c>
-      <c r="D28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>369</v>
+      </c>
+      <c r="F28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1503,13 +2099,19 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" t="s">
         <v>136</v>
       </c>
-      <c r="D29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>316</v>
+      </c>
+      <c r="F29" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1517,13 +2119,19 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="E30" t="s">
+        <v>326</v>
+      </c>
+      <c r="F30" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1531,13 +2139,19 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="E31" t="s">
+        <v>341</v>
+      </c>
+      <c r="F31" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1545,13 +2159,19 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" t="s">
         <v>140</v>
       </c>
-      <c r="D32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>263</v>
+      </c>
+      <c r="F32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1559,13 +2179,19 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="E33" t="s">
+        <v>336</v>
+      </c>
+      <c r="F33" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1573,13 +2199,19 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" t="s">
         <v>143</v>
       </c>
-      <c r="D34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>347</v>
+      </c>
+      <c r="F34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1587,13 +2219,19 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E35" t="s">
+        <v>282</v>
+      </c>
+      <c r="F35" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1601,13 +2239,19 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" t="s">
         <v>146</v>
       </c>
-      <c r="D36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>329</v>
+      </c>
+      <c r="F36" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1615,13 +2259,19 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" t="s">
         <v>148</v>
       </c>
-      <c r="D37" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>304</v>
+      </c>
+      <c r="F37" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1629,13 +2279,19 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" t="s">
         <v>150</v>
       </c>
-      <c r="D38" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>253</v>
+      </c>
+      <c r="F38" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1643,13 +2299,19 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" t="s">
         <v>152</v>
       </c>
-      <c r="D39" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>292</v>
+      </c>
+      <c r="F39" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1657,13 +2319,19 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" t="s">
         <v>154</v>
       </c>
-      <c r="D40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>250</v>
+      </c>
+      <c r="F40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1671,13 +2339,19 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" t="s">
         <v>156</v>
       </c>
-      <c r="D41" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>338</v>
+      </c>
+      <c r="F41" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1685,13 +2359,19 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" t="s">
         <v>158</v>
       </c>
-      <c r="D42" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>328</v>
+      </c>
+      <c r="F42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1699,13 +2379,19 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" t="s">
         <v>160</v>
       </c>
-      <c r="D43" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>332</v>
+      </c>
+      <c r="F43" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1713,13 +2399,19 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" t="s">
         <v>162</v>
       </c>
-      <c r="D44" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>339</v>
+      </c>
+      <c r="F44" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1727,13 +2419,19 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" t="s">
         <v>164</v>
       </c>
-      <c r="D45" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>334</v>
+      </c>
+      <c r="F45" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1741,13 +2439,19 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" t="s">
         <v>166</v>
       </c>
-      <c r="D46" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>350</v>
+      </c>
+      <c r="F46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1755,13 +2459,19 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" t="s">
         <v>168</v>
       </c>
-      <c r="D47" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>316</v>
+      </c>
+      <c r="F47" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1769,41 +2479,59 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" t="s">
         <v>170</v>
       </c>
-      <c r="D48" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>345</v>
+      </c>
+      <c r="F48" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" t="s">
         <v>172</v>
       </c>
-      <c r="D49" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>275</v>
+      </c>
+      <c r="F49" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" t="s">
         <v>174</v>
       </c>
-      <c r="D50" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>248</v>
+      </c>
+      <c r="F50" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1811,13 +2539,19 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
+        <v>175</v>
+      </c>
+      <c r="D51" t="s">
         <v>176</v>
       </c>
-      <c r="D51" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>330</v>
+      </c>
+      <c r="F51" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1825,13 +2559,19 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" t="s">
         <v>178</v>
       </c>
-      <c r="D52" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>255</v>
+      </c>
+      <c r="F52" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1839,13 +2579,19 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
+        <v>179</v>
+      </c>
+      <c r="D53" t="s">
         <v>180</v>
       </c>
-      <c r="D53" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>308</v>
+      </c>
+      <c r="F53" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1853,13 +2599,19 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D54" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="E54" t="s">
+        <v>365</v>
+      </c>
+      <c r="F54" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1867,13 +2619,19 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" t="s">
         <v>183</v>
       </c>
-      <c r="D55" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>289</v>
+      </c>
+      <c r="F55" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1881,13 +2639,19 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" t="s">
         <v>185</v>
       </c>
-      <c r="D56" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>321</v>
+      </c>
+      <c r="F56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1895,13 +2659,19 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" t="s">
         <v>187</v>
       </c>
-      <c r="D57" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>286</v>
+      </c>
+      <c r="F57" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1909,13 +2679,19 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D58" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="E58" t="s">
+        <v>267</v>
+      </c>
+      <c r="F58" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1923,13 +2699,19 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" t="s">
         <v>190</v>
       </c>
-      <c r="D59" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>359</v>
+      </c>
+      <c r="F59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1937,13 +2719,19 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" t="s">
         <v>192</v>
       </c>
-      <c r="D60" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>291</v>
+      </c>
+      <c r="F60" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1951,13 +2739,19 @@
         <v>57</v>
       </c>
       <c r="C61" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" t="s">
         <v>194</v>
       </c>
-      <c r="D61" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>367</v>
+      </c>
+      <c r="F61" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1965,41 +2759,59 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" t="s">
         <v>196</v>
       </c>
-      <c r="D62" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>355</v>
+      </c>
+      <c r="F62" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="E63" t="s">
+        <v>300</v>
+      </c>
+      <c r="F63" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" t="s">
         <v>199</v>
       </c>
-      <c r="D64" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>280</v>
+      </c>
+      <c r="F64" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2007,13 +2819,19 @@
         <v>59</v>
       </c>
       <c r="C65" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65" t="s">
         <v>201</v>
       </c>
-      <c r="D65" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>362</v>
+      </c>
+      <c r="F65" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2021,27 +2839,39 @@
         <v>60</v>
       </c>
       <c r="C66" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" t="s">
         <v>203</v>
       </c>
-      <c r="D66" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>278</v>
+      </c>
+      <c r="F66" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D67" t="s">
         <v>205</v>
       </c>
-      <c r="D67" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>360</v>
+      </c>
+      <c r="F67" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2049,13 +2879,19 @@
         <v>61</v>
       </c>
       <c r="C68" t="s">
+        <v>206</v>
+      </c>
+      <c r="D68" t="s">
         <v>207</v>
       </c>
-      <c r="D68" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>181</v>
+      </c>
+      <c r="F68" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2063,13 +2899,19 @@
         <v>62</v>
       </c>
       <c r="C69" t="s">
+        <v>208</v>
+      </c>
+      <c r="D69" t="s">
         <v>209</v>
       </c>
-      <c r="D69" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>260</v>
+      </c>
+      <c r="F69" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2077,237 +2919,324 @@
         <v>63</v>
       </c>
       <c r="C70" t="s">
+        <v>210</v>
+      </c>
+      <c r="D70" t="s">
         <v>211</v>
       </c>
-      <c r="D70" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>364</v>
+      </c>
+      <c r="F70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>64</v>
       </c>
       <c r="C71" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" t="s">
         <v>213</v>
       </c>
-      <c r="D71" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>246</v>
+      </c>
+      <c r="F71" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>65</v>
       </c>
       <c r="C72" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" t="s">
         <v>215</v>
       </c>
-      <c r="D72" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>258</v>
+      </c>
+      <c r="F72" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>66</v>
       </c>
       <c r="C73" t="s">
+        <v>216</v>
+      </c>
+      <c r="D73" t="s">
         <v>217</v>
       </c>
-      <c r="D73" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>296</v>
+      </c>
+      <c r="F73" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>67</v>
       </c>
       <c r="C74" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" t="s">
         <v>219</v>
       </c>
-      <c r="D74" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>364</v>
+      </c>
+      <c r="F74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>68</v>
       </c>
       <c r="C75" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="E75" t="s">
+        <v>349</v>
+      </c>
+      <c r="F75" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>69</v>
       </c>
       <c r="C76" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D76" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="E76" t="s">
+        <v>324</v>
+      </c>
+      <c r="F76" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>70</v>
       </c>
       <c r="C77" t="s">
+        <v>223</v>
+      </c>
+      <c r="D77" t="s">
+        <v>203</v>
+      </c>
+      <c r="E77" t="s">
+        <v>251</v>
+      </c>
+      <c r="F77" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" t="s">
         <v>224</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="E78" t="s">
+        <v>375</v>
+      </c>
+      <c r="F78" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
         <v>71</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>226</v>
       </c>
-      <c r="D78" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="D79" t="s">
+        <v>227</v>
+      </c>
+      <c r="E79" t="s">
+        <v>276</v>
+      </c>
+      <c r="F79" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>79</v>
-      </c>
-      <c r="C79" t="s">
-        <v>227</v>
-      </c>
-      <c r="D79" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>72</v>
       </c>
       <c r="C80" t="s">
+        <v>228</v>
+      </c>
+      <c r="D80" t="s">
         <v>229</v>
       </c>
-      <c r="D80" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>282</v>
+      </c>
+      <c r="F80" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>73</v>
       </c>
       <c r="C81" t="s">
+        <v>230</v>
+      </c>
+      <c r="D81" t="s">
         <v>231</v>
       </c>
-      <c r="D81" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>319</v>
+      </c>
+      <c r="F81" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>74</v>
       </c>
       <c r="C82" t="s">
+        <v>232</v>
+      </c>
+      <c r="D82" t="s">
         <v>233</v>
       </c>
-      <c r="D82" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>306</v>
+      </c>
+      <c r="F82" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>75</v>
       </c>
       <c r="C83" t="s">
+        <v>234</v>
+      </c>
+      <c r="D83" t="s">
         <v>235</v>
       </c>
-      <c r="D83" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>256</v>
+      </c>
+      <c r="F83" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>76</v>
       </c>
       <c r="C84" t="s">
+        <v>236</v>
+      </c>
+      <c r="D84" t="s">
         <v>237</v>
       </c>
-      <c r="D84" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>298</v>
+      </c>
+      <c r="F84" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>77</v>
       </c>
       <c r="C85" t="s">
+        <v>238</v>
+      </c>
+      <c r="D85" t="s">
         <v>239</v>
       </c>
-      <c r="D85" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>78</v>
-      </c>
-      <c r="C86" t="s">
-        <v>241</v>
-      </c>
-      <c r="D86" t="s">
-        <v>242</v>
+      <c r="E85" t="s">
+        <v>181</v>
+      </c>
+      <c r="F85" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:F85" xr:uid="{F8763AEB-1ACF-41C4-833A-1D5A43671DEB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F85">
+      <sortCondition ref="C1:C85"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/BDF/1A.xlsx
+++ b/BDF/1A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cours\ensc\2A\BDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoi\Documents\2A\BDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49896F19-5B8A-4AB6-AC10-08F2C0568445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1E9C0D-22F7-457D-8A0C-F8894C6DED25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -661,9 +661,6 @@
     <t>Evan</t>
   </si>
   <si>
-    <t>LANUSSE-MALHENE</t>
-  </si>
-  <si>
     <t>Corentin</t>
   </si>
   <si>
@@ -1748,6 +1745,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mattheo </t>
+  </si>
+  <si>
+    <t>VALLEE</t>
   </si>
 </sst>
 </file>
@@ -2101,8 +2101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2118,7 +2118,7 @@
     <col min="9" max="18" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45">
+    <row r="1" spans="1:18" ht="30">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3713,10 +3713,10 @@
         <v>206</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="G45" s="6" t="b">
         <v>1</v>
@@ -3740,16 +3740,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>122</v>
@@ -3776,19 +3776,19 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="F47" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="G47" s="6" t="b">
         <v>1</v>
@@ -3812,19 +3812,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E48" s="5" t="s">
+      <c r="F48" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="G48" s="6" t="b">
         <v>1</v>
@@ -3848,19 +3848,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="E49" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="F49" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="G49" s="10" t="b">
         <v>1</v>
@@ -3884,16 +3884,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>36</v>
@@ -3920,19 +3920,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="E51" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="F51" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>233</v>
       </c>
       <c r="G51" s="10" t="b">
         <v>1</v>
@@ -3956,16 +3956,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>51</v>
@@ -3992,19 +3992,19 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="D53" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="F53" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="G53" s="6" t="b">
         <v>1</v>
@@ -4028,19 +4028,19 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="D54" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="F54" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="G54" s="6" t="b">
         <v>1</v>
@@ -4064,19 +4064,19 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="D55" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="E55" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="G55" s="6" t="b">
         <v>1</v>
@@ -4100,19 +4100,19 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="F56" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="G56" s="6" t="b">
         <v>1</v>
@@ -4136,19 +4136,19 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="E57" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="F57" s="9" t="s">
         <v>259</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="G57" s="10" t="b">
         <v>1</v>
@@ -4172,19 +4172,19 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="F58" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="G58" s="6" t="b">
         <v>1</v>
@@ -4208,19 +4208,19 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="F59" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="G59" s="6" t="b">
         <v>1</v>
@@ -4244,19 +4244,19 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="D60" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="F60" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="G60" s="6" t="b">
         <v>1</v>
@@ -4280,16 +4280,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="D61" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>31</v>
@@ -4316,19 +4316,19 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="D62" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="F62" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="G62" s="6" t="b">
         <v>1</v>
@@ -4352,19 +4352,19 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="D63" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="F63" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="G63" s="6" t="b">
         <v>1</v>
@@ -4388,19 +4388,19 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="F64" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="G64" s="6" t="b">
         <v>1</v>
@@ -4424,19 +4424,19 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="D65" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="E65" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="F65" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="G65" s="10" t="b">
         <v>1</v>
@@ -4460,19 +4460,19 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="D66" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="F66" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="G66" s="6" t="b">
         <v>1</v>
@@ -4496,19 +4496,19 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="D67" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D67" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E67" s="5" t="s">
+      <c r="F67" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="G67" s="10" t="b">
         <v>1</v>
@@ -4532,19 +4532,19 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="D68" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="E68" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>312</v>
-      </c>
       <c r="F68" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G68" s="10" t="b">
         <v>1</v>
@@ -4568,19 +4568,19 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E69" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F69" s="9" t="s">
         <v>315</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>316</v>
       </c>
       <c r="G69" s="6" t="b">
         <v>1</v>
@@ -4604,19 +4604,19 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>318</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E70" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="G70" s="6" t="b">
         <v>1</v>
@@ -4640,19 +4640,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>321</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>322</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>163</v>
       </c>
       <c r="E71" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="G71" s="6" t="b">
         <v>1</v>
@@ -4676,16 +4676,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>325</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>326</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>174</v>
@@ -4712,19 +4712,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="D73" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>331</v>
-      </c>
       <c r="F73" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G73" s="6" t="b">
         <v>1</v>
@@ -4748,19 +4748,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="D74" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="F74" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="G74" s="6" t="b">
         <v>1</v>
@@ -4784,19 +4784,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="D75" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="F75" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="G75" s="6" t="b">
         <v>1</v>
@@ -4820,16 +4820,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>342</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>343</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>23</v>
@@ -4856,19 +4856,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="D77" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="F77" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="G77" s="6" t="b">
         <v>1</v>
@@ -4892,19 +4892,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D78" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="F78" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="G78" s="6" t="b">
         <v>1</v>
@@ -4928,19 +4928,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="D79" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>357</v>
-      </c>
       <c r="F79" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G79" s="6" t="b">
         <v>1</v>
@@ -4964,16 +4964,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="D80" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>168</v>
@@ -5000,16 +5000,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="D81" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="E81" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>168</v>
@@ -5036,19 +5036,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>365</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>366</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>145</v>
       </c>
       <c r="E82" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="G82" s="10" t="b">
         <v>1</v>
@@ -5072,16 +5072,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="D83" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="E83" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>372</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>61</v>
@@ -5108,19 +5108,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="D84" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E84" s="5" t="s">
+      <c r="F84" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="G84" s="6" t="b">
         <v>1</v>
@@ -5144,19 +5144,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E85" s="5" t="s">
+      <c r="F85" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="G85" s="6" t="b">
         <v>1</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>2</v>
@@ -23525,10 +23525,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>381</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -23536,19 +23536,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>274</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>275</v>
       </c>
       <c r="G2" s="13" t="b">
         <f>IF(LOOKUP(LOWER(C2),rep1A_tri!C$1:C$100, rep1A_tri!D$1:D$100)="Oui", TRUE, FALSE)</f>
@@ -23632,19 +23632,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>357</v>
-      </c>
       <c r="F5" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G5" s="13" t="b">
         <v>1</v>
@@ -23658,19 +23658,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>307</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>308</v>
       </c>
       <c r="G6" s="13" t="b">
         <v>1</v>
@@ -23762,16 +23762,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>226</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>51</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>36</v>
@@ -23788,19 +23788,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>288</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>289</v>
       </c>
       <c r="G11" s="13" t="b">
         <v>1</v>
@@ -23840,19 +23840,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="G13" s="11" t="b">
         <v>0</v>
@@ -23866,16 +23866,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>278</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>279</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>31</v>
@@ -23944,19 +23944,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>317</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>318</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>319</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>320</v>
       </c>
       <c r="G17" s="13" t="b">
         <v>1</v>
@@ -23970,16 +23970,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>342</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>343</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>148</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>23</v>
@@ -23996,19 +23996,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>321</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>322</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>163</v>
       </c>
       <c r="E19" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>323</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>324</v>
       </c>
       <c r="G19" s="13" t="b">
         <v>1</v>
@@ -24022,16 +24022,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>236</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>237</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>51</v>
@@ -24074,16 +24074,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>325</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>326</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>174</v>
@@ -24100,19 +24100,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="E23" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="F23" s="11" t="s">
         <v>293</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>294</v>
       </c>
       <c r="G23" s="13" t="b">
         <v>1</v>
@@ -24135,7 +24135,7 @@
         <v>41</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>11</v>
@@ -24161,7 +24161,7 @@
         <v>172</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>174</v>
@@ -24265,7 +24265,7 @@
         <v>108</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>110</v>
@@ -24282,16 +24282,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>38</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>122</v>
@@ -24334,19 +24334,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="D32" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="E32" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="F32" s="11" t="s">
         <v>283</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>284</v>
       </c>
       <c r="G32" s="13" t="b">
         <v>1</v>
@@ -24386,19 +24386,19 @@
         <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="D34" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="E34" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="F34" s="11" t="s">
         <v>224</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>225</v>
       </c>
       <c r="G34" s="11" t="b">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>51</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>53</v>
@@ -24438,16 +24438,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="D36" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="E36" s="11" t="s">
         <v>371</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>372</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>61</v>
@@ -24577,10 +24577,10 @@
         <v>206</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G41" s="13" t="b">
         <v>1</v>
@@ -24603,7 +24603,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>11</v>
@@ -24620,19 +24620,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="D43" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="E43" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="F43" s="11" t="s">
         <v>340</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>341</v>
       </c>
       <c r="G43" s="13" t="b">
         <v>1</v>
@@ -24672,19 +24672,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="D45" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="E45" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="F45" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>242</v>
       </c>
       <c r="G45" s="13" t="b">
         <v>1</v>
@@ -24698,19 +24698,19 @@
         <v>44</v>
       </c>
       <c r="B46" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="D46" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="E46" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="F46" s="11" t="s">
         <v>269</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>270</v>
       </c>
       <c r="G46" s="13" t="b">
         <v>1</v>
@@ -24733,7 +24733,7 @@
         <v>113</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>110</v>
@@ -24750,19 +24750,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="D48" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="E48" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>331</v>
-      </c>
       <c r="F48" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G48" s="13" t="b">
         <v>1</v>
@@ -24785,7 +24785,7 @@
         <v>177</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>174</v>
@@ -24828,19 +24828,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="D51" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="E51" s="11" t="s">
+      <c r="F51" s="11" t="s">
         <v>219</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>220</v>
       </c>
       <c r="G51" s="11" t="b">
         <v>0</v>
@@ -24880,19 +24880,19 @@
         <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="D53" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="E53" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="F53" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>216</v>
       </c>
       <c r="G53" s="11" t="b">
         <v>0</v>
@@ -24906,19 +24906,19 @@
         <v>52</v>
       </c>
       <c r="B54" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="C54" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="E54" s="11" t="s">
+      <c r="F54" s="11" t="s">
         <v>378</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>379</v>
       </c>
       <c r="G54" s="13" t="b">
         <v>1</v>
@@ -24932,19 +24932,19 @@
         <v>53</v>
       </c>
       <c r="B55" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="D55" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="E55" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="F55" s="11" t="s">
         <v>259</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>260</v>
       </c>
       <c r="G55" s="11" t="b">
         <v>0</v>
@@ -24958,19 +24958,19 @@
         <v>54</v>
       </c>
       <c r="B56" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="D56" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="E56" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="F56" s="11" t="s">
         <v>348</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>349</v>
       </c>
       <c r="G56" s="13" t="b">
         <v>1</v>
@@ -25036,19 +25036,19 @@
         <v>57</v>
       </c>
       <c r="B59" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="D59" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="E59" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>312</v>
-      </c>
       <c r="F59" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G59" s="11" t="b">
         <v>0</v>
@@ -25140,19 +25140,19 @@
         <v>61</v>
       </c>
       <c r="B63" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="D63" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E63" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="D63" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="E63" s="11" t="s">
+      <c r="F63" s="11" t="s">
         <v>375</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>376</v>
       </c>
       <c r="G63" s="13" t="b">
         <v>1</v>
@@ -25192,19 +25192,19 @@
         <v>63</v>
       </c>
       <c r="B65" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C65" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="D65" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="E65" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="F65" s="17" t="s">
         <v>264</v>
-      </c>
-      <c r="F65" s="17" t="s">
-        <v>265</v>
       </c>
       <c r="G65" s="13" t="b">
         <v>1</v>
@@ -25218,19 +25218,19 @@
         <v>64</v>
       </c>
       <c r="B66" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>313</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>314</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>64</v>
       </c>
       <c r="E66" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="F66" s="11" t="s">
         <v>315</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>316</v>
       </c>
       <c r="G66" s="11" t="b">
         <v>0</v>
@@ -25244,19 +25244,19 @@
         <v>65</v>
       </c>
       <c r="B67" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="D67" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="E67" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="F67" s="11" t="s">
         <v>353</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>354</v>
       </c>
       <c r="G67" s="13" t="b">
         <v>1</v>
@@ -25270,19 +25270,19 @@
         <v>66</v>
       </c>
       <c r="B68" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="D68" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="E68" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="F68" s="11" t="s">
         <v>246</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>247</v>
       </c>
       <c r="G68" s="13" t="b">
         <v>1</v>
@@ -25322,16 +25322,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="D70" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="E70" s="11" t="s">
         <v>360</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>361</v>
       </c>
       <c r="F70" s="11" t="s">
         <v>168</v>
@@ -25348,19 +25348,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="D71" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="E71" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="F71" s="11" t="s">
         <v>232</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>233</v>
       </c>
       <c r="G71" s="11" t="b">
         <v>0</v>
@@ -25426,16 +25426,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="D74" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="D74" s="11" t="s">
-        <v>364</v>
-      </c>
       <c r="E74" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F74" s="11" t="s">
         <v>168</v>
@@ -25478,19 +25478,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C76" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="D76" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="E76" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="F76" s="11" t="s">
         <v>298</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>299</v>
       </c>
       <c r="G76" s="13" t="b">
         <v>1</v>
@@ -25591,7 +25591,7 @@
         <v>56</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F80" s="11" t="s">
         <v>53</v>
@@ -25608,19 +25608,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="D81" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="E81" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="F81" s="11" t="s">
         <v>303</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>304</v>
       </c>
       <c r="G81" s="11" t="b">
         <v>0</v>
@@ -25634,19 +25634,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>365</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>366</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>145</v>
       </c>
       <c r="E82" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="F82" s="11" t="s">
         <v>367</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>368</v>
       </c>
       <c r="G82" s="11" t="b">
         <v>0</v>
@@ -25686,19 +25686,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="D84" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="E84" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="F84" s="11" t="s">
         <v>335</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>336</v>
       </c>
       <c r="G84" s="13" t="b">
         <v>1</v>
@@ -25712,19 +25712,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="D85" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D85" s="11" t="s">
-        <v>250</v>
-      </c>
       <c r="E85" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F85" s="11" t="s">
         <v>246</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>247</v>
       </c>
       <c r="G85" s="13" t="b">
         <v>1</v>
@@ -28317,13 +28317,13 @@
         <v>44114.461439999999</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E1" s="11" t="str">
         <f t="shared" ref="E1:E1000" si="0">LOWER(C1)</f>
@@ -28342,10 +28342,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E2" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28364,10 +28364,10 @@
         <v>59</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E3" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28379,13 +28379,13 @@
         <v>44113.591378541663</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E4" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28397,13 +28397,13 @@
         <v>44115.55237075231</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>392</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>393</v>
       </c>
       <c r="E5" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28418,10 +28418,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E6" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28436,10 +28436,10 @@
         <v>38</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E7" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28454,10 +28454,10 @@
         <v>168</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28472,10 +28472,10 @@
         <v>51</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28487,13 +28487,13 @@
         <v>44113.933396296299</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>398</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E10" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28508,10 +28508,10 @@
         <v>41</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E11" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28523,13 +28523,13 @@
         <v>44116.433619513889</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E12" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28541,13 +28541,13 @@
         <v>44113.599626620373</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>402</v>
-      </c>
       <c r="D13" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28559,13 +28559,13 @@
         <v>44116.370809803237</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>404</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E14" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28580,10 +28580,10 @@
         <v>99</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E15" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28598,10 +28598,10 @@
         <v>36</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E16" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28613,13 +28613,13 @@
         <v>44116.415612245371</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>408</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E17" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28634,10 +28634,10 @@
         <v>163</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E18" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28649,13 +28649,13 @@
         <v>44113.59883599537</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>411</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E19" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28670,10 +28670,10 @@
         <v>23</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E20" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28688,10 +28688,10 @@
         <v>41</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E21" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28703,13 +28703,13 @@
         <v>44113.596242928237</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>415</v>
-      </c>
       <c r="D22" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E22" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28724,10 +28724,10 @@
         <v>41</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E23" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28739,13 +28739,13 @@
         <v>44113.678158807874</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>418</v>
-      </c>
       <c r="D24" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E24" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28760,10 +28760,10 @@
         <v>84</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E25" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28778,10 +28778,10 @@
         <v>125</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E26" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28793,13 +28793,13 @@
         <v>44116.734866342595</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>422</v>
-      </c>
       <c r="D27" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E27" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28814,10 +28814,10 @@
         <v>108</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E28" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28832,10 +28832,10 @@
         <v>38</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E29" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28853,7 +28853,7 @@
         <v>140</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E30" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28865,13 +28865,13 @@
         <v>44113.760370555552</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E31" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28886,10 +28886,10 @@
         <v>163</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E32" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28901,13 +28901,13 @@
         <v>44116.394455416666</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E33" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28922,10 +28922,10 @@
         <v>51</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E34" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28937,13 +28937,13 @@
         <v>44116.447430266198</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>430</v>
-      </c>
       <c r="D35" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E35" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28958,10 +28958,10 @@
         <v>31</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E36" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28979,7 +28979,7 @@
         <v>68</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E37" s="11" t="str">
         <f t="shared" si="0"/>
@@ -28994,10 +28994,10 @@
         <v>89</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E38" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29012,10 +29012,10 @@
         <v>202</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E39" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29030,10 +29030,10 @@
         <v>206</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E40" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29048,10 +29048,10 @@
         <v>11</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E41" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29063,13 +29063,13 @@
         <v>44113.593641724539</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E42" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29084,10 +29084,10 @@
         <v>189</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E43" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29099,13 +29099,13 @@
         <v>44113.691769849538</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E44" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29117,13 +29117,13 @@
         <v>44113.607756979167</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E45" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29138,10 +29138,10 @@
         <v>113</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E46" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29153,13 +29153,13 @@
         <v>44113.595211990745</v>
       </c>
       <c r="B47" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>442</v>
-      </c>
       <c r="D47" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E47" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29174,10 +29174,10 @@
         <v>177</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E48" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29192,10 +29192,10 @@
         <v>130</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E49" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29207,13 +29207,13 @@
         <v>44116.452561122685</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E50" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29228,10 +29228,10 @@
         <v>21</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E51" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29243,13 +29243,13 @@
         <v>44116.450276979165</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E52" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29261,13 +29261,13 @@
         <v>44116.369399953706</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E53" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29279,13 +29279,13 @@
         <v>44115.922874351847</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E54" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29297,13 +29297,13 @@
         <v>44113.67016523148</v>
       </c>
       <c r="B55" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>449</v>
-      </c>
       <c r="D55" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E55" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29318,10 +29318,10 @@
         <v>198</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E56" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29336,10 +29336,10 @@
         <v>31</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E57" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29351,13 +29351,13 @@
         <v>44116.963584953701</v>
       </c>
       <c r="B58" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="C58" s="11" t="s">
-        <v>453</v>
-      </c>
       <c r="D58" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E58" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29372,10 +29372,10 @@
         <v>74</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E59" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29387,13 +29387,13 @@
         <v>44113.950170810189</v>
       </c>
       <c r="B60" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="C60" s="11" t="s">
-        <v>456</v>
-      </c>
       <c r="D60" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E60" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29405,13 +29405,13 @@
         <v>44117.778920162033</v>
       </c>
       <c r="B61" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>458</v>
-      </c>
       <c r="D61" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E61" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29426,10 +29426,10 @@
         <v>16</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E62" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29441,13 +29441,13 @@
         <v>44113.596649409723</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E63" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29462,10 +29462,10 @@
         <v>135</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E64" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29477,13 +29477,13 @@
         <v>44113.601430868061</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E65" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29498,10 +29498,10 @@
         <v>64</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E66" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29513,13 +29513,13 @@
         <v>44113.698039502313</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E67" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29531,13 +29531,13 @@
         <v>44113.718651817129</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E68" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29552,10 +29552,10 @@
         <v>116</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E69" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29567,13 +29567,13 @@
         <v>44113.591450347223</v>
       </c>
       <c r="B70" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>467</v>
-      </c>
       <c r="D70" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E70" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29585,13 +29585,13 @@
         <v>44116.374907800928</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E71" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29603,13 +29603,13 @@
         <v>44113.666456736115</v>
       </c>
       <c r="B72" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="C72" s="11" t="s">
-        <v>470</v>
-      </c>
       <c r="D72" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E72" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29624,10 +29624,10 @@
         <v>76</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E73" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29639,13 +29639,13 @@
         <v>44116.444080717592</v>
       </c>
       <c r="B74" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C74" s="11" t="s">
-        <v>473</v>
-      </c>
       <c r="D74" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E74" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29660,10 +29660,10 @@
         <v>76</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E75" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29675,13 +29675,13 @@
         <v>44117.321551782406</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E76" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29696,10 +29696,10 @@
         <v>64</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E77" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29711,13 +29711,13 @@
         <v>44113.615871342598</v>
       </c>
       <c r="B78" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="C78" s="11" t="s">
-        <v>478</v>
-      </c>
       <c r="D78" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E78" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29732,10 +29732,10 @@
         <v>94</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E79" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29747,13 +29747,13 @@
         <v>44116.398951886571</v>
       </c>
       <c r="B80" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="C80" s="11" t="s">
-        <v>481</v>
-      </c>
       <c r="D80" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E80" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29765,13 +29765,13 @@
         <v>44116.387270798616</v>
       </c>
       <c r="B81" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="C81" s="11" t="s">
-        <v>483</v>
-      </c>
       <c r="D81" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E81" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29786,10 +29786,10 @@
         <v>145</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E82" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29801,13 +29801,13 @@
         <v>44113.613585150466</v>
       </c>
       <c r="B83" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="C83" s="11" t="s">
-        <v>486</v>
-      </c>
       <c r="D83" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E83" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29819,13 +29819,13 @@
         <v>44113.596243252316</v>
       </c>
       <c r="B84" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="C84" s="11" t="s">
-        <v>488</v>
-      </c>
       <c r="D84" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E84" s="11" t="str">
         <f t="shared" si="0"/>
@@ -29837,13 +29837,13 @@
         <v>44114.899520798615</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E85" s="11" t="str">
         <f t="shared" si="0"/>
@@ -41471,16 +41471,16 @@
         <v>44117.770810000002</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F1" s="11" t="str">
         <f t="shared" ref="F1:F14" si="0">LOWER(B1)</f>
@@ -41492,16 +41492,16 @@
         <v>44117.483440879631</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F2" s="11" t="str">
         <f t="shared" si="0"/>
@@ -41513,16 +41513,16 @@
         <v>44117.696809872687</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F3" s="11" t="str">
         <f t="shared" si="0"/>
@@ -41534,16 +41534,16 @@
         <v>44117.488467962961</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F4" s="11" t="str">
         <f t="shared" si="0"/>
@@ -41555,16 +41555,16 @@
         <v>44117.771631296295</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F5" s="11" t="str">
         <f t="shared" si="0"/>
@@ -41576,16 +41576,16 @@
         <v>44117.536835092593</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F6" s="11" t="str">
         <f t="shared" si="0"/>
@@ -41597,16 +41597,16 @@
         <v>44116.844515821758</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>43</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F7" s="11" t="str">
         <f t="shared" si="0"/>
@@ -41624,10 +41624,10 @@
         <v>48</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -41639,16 +41639,16 @@
         <v>44116.959971874996</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -41660,16 +41660,16 @@
         <v>44113.468514791668</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F10" s="11" t="str">
         <f t="shared" si="0"/>
@@ -41681,16 +41681,16 @@
         <v>44116.92161208333</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>66</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F11" s="11" t="str">
         <f t="shared" si="0"/>
@@ -41702,16 +41702,16 @@
         <v>44117.691979236115</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>504</v>
-      </c>
       <c r="D12" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F12" s="11" t="str">
         <f t="shared" si="0"/>
@@ -41723,16 +41723,16 @@
         <v>44117.898655949073</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>76</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -41744,16 +41744,16 @@
         <v>44117.46713694444</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F14" s="11" t="str">
         <f t="shared" si="0"/>
@@ -41765,16 +41765,16 @@
         <v>44117.436663020839</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>508</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -41782,16 +41782,16 @@
         <v>44117.4248224537</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>91</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -41799,16 +41799,16 @@
         <v>44112.825432800921</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>96</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -41816,16 +41816,16 @@
         <v>44117.816286331014</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>101</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -41833,16 +41833,16 @@
         <v>44117.819433310186</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>105</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -41850,16 +41850,16 @@
         <v>44117.556765682872</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>110</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -41867,16 +41867,16 @@
         <v>44116.975948622683</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>516</v>
-      </c>
       <c r="D21" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -41884,16 +41884,16 @@
         <v>44116.65247912037</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>122</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -41901,16 +41901,16 @@
         <v>44117.437585879627</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>127</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -41918,16 +41918,16 @@
         <v>44117.450684976851</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>132</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -41935,16 +41935,16 @@
         <v>44117.862635902777</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>137</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -41952,16 +41952,16 @@
         <v>44117.967943599535</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -41969,16 +41969,16 @@
         <v>44117.462033460644</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>145</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -41986,16 +41986,16 @@
         <v>44117.83721179398</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>150</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -42009,10 +42009,10 @@
         <v>155</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -42020,16 +42020,16 @@
         <v>44117.788027870367</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -42037,16 +42037,16 @@
         <v>44117.878027997685</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>165</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -42054,16 +42054,16 @@
         <v>44117.837516840278</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>155</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -42071,16 +42071,16 @@
         <v>44116.928222083334</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>174</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -42091,13 +42091,13 @@
         <v>180</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -42105,16 +42105,16 @@
         <v>44117.474271354164</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>186</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -42122,16 +42122,16 @@
         <v>44116.827028819447</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>191</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -42145,10 +42145,10 @@
         <v>195</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -42156,16 +42156,16 @@
         <v>44117.858278518514</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -42173,16 +42173,16 @@
         <v>44117.565539687501</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>168</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -42190,16 +42190,16 @@
         <v>44117.845840000002</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -42207,16 +42207,16 @@
         <v>44114.503220543978</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>122</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -42224,16 +42224,16 @@
         <v>44112.829776898143</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -42241,16 +42241,16 @@
         <v>44117.542312777776</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -42258,16 +42258,16 @@
         <v>44117.547863761574</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -42275,16 +42275,16 @@
         <v>44116.95724856481</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -42292,16 +42292,16 @@
         <v>44117.706655162037</v>
       </c>
       <c r="B46" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>537</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -42309,16 +42309,16 @@
         <v>44117.868466874999</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -42326,16 +42326,16 @@
         <v>44116.857539178236</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -42343,16 +42343,16 @@
         <v>44117.917978726851</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -42360,16 +42360,16 @@
         <v>44116.900976921301</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -42377,16 +42377,16 @@
         <v>44115.942219629629</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>202</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -42394,16 +42394,16 @@
         <v>44112.819791481481</v>
       </c>
       <c r="B52" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>543</v>
-      </c>
       <c r="D52" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -42411,16 +42411,16 @@
         <v>44117.557286261574</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -42428,16 +42428,16 @@
         <v>44116.821577858791</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -42445,16 +42445,16 @@
         <v>44117.474382083332</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -42462,16 +42462,16 @@
         <v>44115.899608865744</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -42479,16 +42479,16 @@
         <v>44117.902966273148</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -42496,16 +42496,16 @@
         <v>44117.828733877315</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -42513,16 +42513,16 @@
         <v>44117.776023831015</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -42530,16 +42530,16 @@
         <v>44113.010214027774</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -42547,16 +42547,16 @@
         <v>44116.802506018517</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -42564,16 +42564,16 @@
         <v>44116.772896828705</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -42581,16 +42581,16 @@
         <v>44116.874098576387</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -42598,16 +42598,16 @@
         <v>44116.813244942125</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -42615,16 +42615,16 @@
         <v>44117.47626369213</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -42632,16 +42632,16 @@
         <v>44117.857569039348</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>174</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -42649,16 +42649,16 @@
         <v>44117.919711469905</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -42666,16 +42666,16 @@
         <v>44117.572719421296</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -42686,13 +42686,13 @@
         <v>11</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -42700,16 +42700,16 @@
         <v>44117.742526597227</v>
       </c>
       <c r="B70" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>559</v>
-      </c>
       <c r="D70" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -42717,16 +42717,16 @@
         <v>44116.979177395835</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -42734,16 +42734,16 @@
         <v>44117.395590416665</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -42751,16 +42751,16 @@
         <v>44117.681422465277</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -42768,16 +42768,16 @@
         <v>44116.638168900463</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>168</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -42785,16 +42785,16 @@
         <v>44117.851066469906</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -42802,16 +42802,16 @@
         <v>44117.68476019676</v>
       </c>
       <c r="B76" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="C76" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>566</v>
-      </c>
       <c r="D76" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -42819,16 +42819,16 @@
         <v>44116.970255590277</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -42836,16 +42836,16 @@
         <v>44116.798159224534</v>
       </c>
       <c r="B78" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="C78" s="11" t="s">
-        <v>569</v>
-      </c>
       <c r="D78" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="79" spans="1:5">
